--- a/Fichiers modifiables/DonnéesExcel/ListeEtatsAnimaux.xlsx
+++ b/Fichiers modifiables/DonnéesExcel/ListeEtatsAnimaux.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Trimestre 6\MA 08 - Serveur BD\Ma-08_Zoo\Fichiers modifiables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Trimestre 6\MA 08 - Serveur BD\Ma-08_Zoo\Fichiers modifiables\DonnéesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,66 +393,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>141</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>163</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>164</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>205</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -460,31 +460,31 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,23 +492,23 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>126</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>159</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,15 +524,15 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>235</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -540,79 +540,79 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>222</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>243</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>47</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,79 +620,79 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>179</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>247</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>62</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>111</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>215</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>245</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,15 +700,15 @@
         <v>6</v>
       </c>
       <c r="B40">
-        <v>16</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>97</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,31 +716,31 @@
         <v>6</v>
       </c>
       <c r="B42">
-        <v>115</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B43">
-        <v>161</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>172</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -753,10 +753,10 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>17</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,56 +764,48 @@
         <v>7</v>
       </c>
       <c r="B48">
-        <v>37</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B49">
-        <v>52</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>110</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>157</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B52">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>7</v>
-      </c>
-      <c r="B53">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <sortState ref="A2:B53">
-    <sortCondition ref="A1"/>
+    <sortCondition ref="B1"/>
   </sortState>
-  <conditionalFormatting sqref="B2:B53">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+  <conditionalFormatting sqref="B2:B52">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
